--- a/data/traffic_flow_data.xlsx
+++ b/data/traffic_flow_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Vehicles"/>
@@ -12,8 +12,8 @@
     <sheet r:id="rId3" sheetId="3" name="TrafficFlow"/>
     <sheet r:id="rId4" sheetId="4" name="Accidents"/>
     <sheet r:id="rId5" sheetId="5" name="RoadConditions"/>
-    <sheet r:id="rId6" sheetId="6" name="TrafficLights"/>
-    <sheet r:id="rId7" sheetId="7" name="Cameras"/>
+    <sheet r:id="rId6" sheetId="6" name="Cameras"/>
+    <sheet r:id="rId7" sheetId="7" name="TrafficLights"/>
     <sheet r:id="rId8" sheetId="8" name="SpeedViolations"/>
     <sheet r:id="rId9" sheetId="9" name="ParkingTickets"/>
     <sheet r:id="rId10" sheetId="10" name="PublicTransport"/>
@@ -1961,12 +1961,327 @@
     <t>SpeedLimit</t>
   </si>
   <si>
+    <t>LightID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>LastChanged</t>
+  </si>
+  <si>
+    <t>Edward Points</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Anne Mountains</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Sandy Fall</t>
+  </si>
+  <si>
+    <t>James Freeway</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Clark Rapids</t>
+  </si>
+  <si>
+    <t>Eric Walk</t>
+  </si>
+  <si>
+    <t>Randy Stream</t>
+  </si>
+  <si>
+    <t>Velez Key</t>
+  </si>
+  <si>
+    <t>Scott Manors</t>
+  </si>
+  <si>
+    <t>Brooks Path</t>
+  </si>
+  <si>
+    <t>David Harbor</t>
+  </si>
+  <si>
+    <t>Gray Orchard</t>
+  </si>
+  <si>
+    <t>Rodney Manor</t>
+  </si>
+  <si>
+    <t>Torres Centers</t>
+  </si>
+  <si>
+    <t>Dawn Prairie</t>
+  </si>
+  <si>
+    <t>Hill Via</t>
+  </si>
+  <si>
+    <t>Adam Stream</t>
+  </si>
+  <si>
+    <t>Miranda Isle</t>
+  </si>
+  <si>
+    <t>Tammy Villages</t>
+  </si>
+  <si>
+    <t>Doyle Highway</t>
+  </si>
+  <si>
+    <t>Mclean Plains</t>
+  </si>
+  <si>
+    <t>Tyler Landing</t>
+  </si>
+  <si>
+    <t>Michael Springs</t>
+  </si>
+  <si>
+    <t>Christopher Circle</t>
+  </si>
+  <si>
+    <t>Dana Ranch</t>
+  </si>
+  <si>
+    <t>Skinner Shoals</t>
+  </si>
+  <si>
+    <t>Ryan Mill</t>
+  </si>
+  <si>
+    <t>Moore Expressway</t>
+  </si>
+  <si>
+    <t>Harrison Mill</t>
+  </si>
+  <si>
+    <t>Betty Viaduct</t>
+  </si>
+  <si>
+    <t>Gonzalez Mews</t>
+  </si>
+  <si>
+    <t>Catherine Mountain</t>
+  </si>
+  <si>
+    <t>Jeffrey Points</t>
+  </si>
+  <si>
+    <t>Christian Mills</t>
+  </si>
+  <si>
+    <t>Sarah Junctions</t>
+  </si>
+  <si>
+    <t>Curry Course</t>
+  </si>
+  <si>
+    <t>Smith Prairie</t>
+  </si>
+  <si>
+    <t>Smith Centers</t>
+  </si>
+  <si>
+    <t>Franklin Glens</t>
+  </si>
+  <si>
+    <t>Catherine Port</t>
+  </si>
+  <si>
+    <t>William Road</t>
+  </si>
+  <si>
+    <t>Joanna Locks</t>
+  </si>
+  <si>
+    <t>Alexander Extension</t>
+  </si>
+  <si>
+    <t>Jacobs Manors</t>
+  </si>
+  <si>
+    <t>Davis Camp</t>
+  </si>
+  <si>
+    <t>Maurice Pass</t>
+  </si>
+  <si>
+    <t>Diaz Vista</t>
+  </si>
+  <si>
+    <t>Lewis Fields</t>
+  </si>
+  <si>
+    <t>William Plains</t>
+  </si>
+  <si>
+    <t>Ortega Flats</t>
+  </si>
+  <si>
+    <t>Curry Island</t>
+  </si>
+  <si>
+    <t>Martinez Tunnel</t>
+  </si>
+  <si>
+    <t>Christy Skyway</t>
+  </si>
+  <si>
+    <t>Rocha Village</t>
+  </si>
+  <si>
+    <t>Collier Vista</t>
+  </si>
+  <si>
+    <t>Fisher Drive</t>
+  </si>
+  <si>
+    <t>Watkins Via</t>
+  </si>
+  <si>
+    <t>Shane Rapid</t>
+  </si>
+  <si>
+    <t>Lloyd Union</t>
+  </si>
+  <si>
+    <t>Kevin Circles</t>
+  </si>
+  <si>
+    <t>Wong Gateway</t>
+  </si>
+  <si>
+    <t>Harris Cliff</t>
+  </si>
+  <si>
+    <t>James Circles</t>
+  </si>
+  <si>
+    <t>Ball Ramp</t>
+  </si>
+  <si>
+    <t>Scott Mill</t>
+  </si>
+  <si>
+    <t>Deborah Mountains</t>
+  </si>
+  <si>
+    <t>Susan Trace</t>
+  </si>
+  <si>
+    <t>Banks Spur</t>
+  </si>
+  <si>
+    <t>Lori Run</t>
+  </si>
+  <si>
+    <t>Jensen Summit</t>
+  </si>
+  <si>
+    <t>Chambers Knoll</t>
+  </si>
+  <si>
+    <t>Dixon Hill</t>
+  </si>
+  <si>
+    <t>Debbie Island</t>
+  </si>
+  <si>
+    <t>Jacob Shores</t>
+  </si>
+  <si>
+    <t>Wilcox Springs</t>
+  </si>
+  <si>
+    <t>Blake Walk</t>
+  </si>
+  <si>
+    <t>Sean Cliff</t>
+  </si>
+  <si>
+    <t>Matthews Oval</t>
+  </si>
+  <si>
+    <t>Kenneth Center</t>
+  </si>
+  <si>
+    <t>King Hills</t>
+  </si>
+  <si>
+    <t>Santos Courts</t>
+  </si>
+  <si>
+    <t>Amber Wall</t>
+  </si>
+  <si>
+    <t>Angel Village</t>
+  </si>
+  <si>
+    <t>Davis Union</t>
+  </si>
+  <si>
+    <t>Jason Summit</t>
+  </si>
+  <si>
+    <t>Baker Fords</t>
+  </si>
+  <si>
+    <t>Figueroa Heights</t>
+  </si>
+  <si>
+    <t>Isabella Valleys</t>
+  </si>
+  <si>
+    <t>Bennett Plaza</t>
+  </si>
+  <si>
+    <t>Morgan Highway</t>
+  </si>
+  <si>
+    <t>Donna Creek</t>
+  </si>
+  <si>
+    <t>Madeline Vista</t>
+  </si>
+  <si>
+    <t>Lloyd Isle</t>
+  </si>
+  <si>
+    <t>Marcus Parkways</t>
+  </si>
+  <si>
+    <t>Angela Roads</t>
+  </si>
+  <si>
+    <t>Jimmy Ford</t>
+  </si>
+  <si>
+    <t>Fleming Square</t>
+  </si>
+  <si>
+    <t>Schaefer Villages</t>
+  </si>
+  <si>
+    <t>Robert Gateway</t>
+  </si>
+  <si>
+    <t>Weaver Viaduct</t>
+  </si>
+  <si>
     <t>CameraID</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>LastMaintenance</t>
   </si>
   <si>
@@ -2274,321 +2589,6 @@
   </si>
   <si>
     <t>Wright Orchard</t>
-  </si>
-  <si>
-    <t>LightID</t>
-  </si>
-  <si>
-    <t>LastChanged</t>
-  </si>
-  <si>
-    <t>Edward Points</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Anne Mountains</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Sandy Fall</t>
-  </si>
-  <si>
-    <t>James Freeway</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Clark Rapids</t>
-  </si>
-  <si>
-    <t>Eric Walk</t>
-  </si>
-  <si>
-    <t>Randy Stream</t>
-  </si>
-  <si>
-    <t>Velez Key</t>
-  </si>
-  <si>
-    <t>Scott Manors</t>
-  </si>
-  <si>
-    <t>Brooks Path</t>
-  </si>
-  <si>
-    <t>David Harbor</t>
-  </si>
-  <si>
-    <t>Gray Orchard</t>
-  </si>
-  <si>
-    <t>Rodney Manor</t>
-  </si>
-  <si>
-    <t>Torres Centers</t>
-  </si>
-  <si>
-    <t>Dawn Prairie</t>
-  </si>
-  <si>
-    <t>Hill Via</t>
-  </si>
-  <si>
-    <t>Adam Stream</t>
-  </si>
-  <si>
-    <t>Miranda Isle</t>
-  </si>
-  <si>
-    <t>Tammy Villages</t>
-  </si>
-  <si>
-    <t>Doyle Highway</t>
-  </si>
-  <si>
-    <t>Mclean Plains</t>
-  </si>
-  <si>
-    <t>Tyler Landing</t>
-  </si>
-  <si>
-    <t>Michael Springs</t>
-  </si>
-  <si>
-    <t>Christopher Circle</t>
-  </si>
-  <si>
-    <t>Dana Ranch</t>
-  </si>
-  <si>
-    <t>Skinner Shoals</t>
-  </si>
-  <si>
-    <t>Ryan Mill</t>
-  </si>
-  <si>
-    <t>Moore Expressway</t>
-  </si>
-  <si>
-    <t>Harrison Mill</t>
-  </si>
-  <si>
-    <t>Betty Viaduct</t>
-  </si>
-  <si>
-    <t>Gonzalez Mews</t>
-  </si>
-  <si>
-    <t>Catherine Mountain</t>
-  </si>
-  <si>
-    <t>Jeffrey Points</t>
-  </si>
-  <si>
-    <t>Christian Mills</t>
-  </si>
-  <si>
-    <t>Sarah Junctions</t>
-  </si>
-  <si>
-    <t>Curry Course</t>
-  </si>
-  <si>
-    <t>Smith Prairie</t>
-  </si>
-  <si>
-    <t>Smith Centers</t>
-  </si>
-  <si>
-    <t>Franklin Glens</t>
-  </si>
-  <si>
-    <t>Catherine Port</t>
-  </si>
-  <si>
-    <t>William Road</t>
-  </si>
-  <si>
-    <t>Joanna Locks</t>
-  </si>
-  <si>
-    <t>Alexander Extension</t>
-  </si>
-  <si>
-    <t>Jacobs Manors</t>
-  </si>
-  <si>
-    <t>Davis Camp</t>
-  </si>
-  <si>
-    <t>Maurice Pass</t>
-  </si>
-  <si>
-    <t>Diaz Vista</t>
-  </si>
-  <si>
-    <t>Lewis Fields</t>
-  </si>
-  <si>
-    <t>William Plains</t>
-  </si>
-  <si>
-    <t>Ortega Flats</t>
-  </si>
-  <si>
-    <t>Curry Island</t>
-  </si>
-  <si>
-    <t>Martinez Tunnel</t>
-  </si>
-  <si>
-    <t>Christy Skyway</t>
-  </si>
-  <si>
-    <t>Rocha Village</t>
-  </si>
-  <si>
-    <t>Collier Vista</t>
-  </si>
-  <si>
-    <t>Fisher Drive</t>
-  </si>
-  <si>
-    <t>Watkins Via</t>
-  </si>
-  <si>
-    <t>Shane Rapid</t>
-  </si>
-  <si>
-    <t>Lloyd Union</t>
-  </si>
-  <si>
-    <t>Kevin Circles</t>
-  </si>
-  <si>
-    <t>Wong Gateway</t>
-  </si>
-  <si>
-    <t>Harris Cliff</t>
-  </si>
-  <si>
-    <t>James Circles</t>
-  </si>
-  <si>
-    <t>Ball Ramp</t>
-  </si>
-  <si>
-    <t>Scott Mill</t>
-  </si>
-  <si>
-    <t>Deborah Mountains</t>
-  </si>
-  <si>
-    <t>Susan Trace</t>
-  </si>
-  <si>
-    <t>Banks Spur</t>
-  </si>
-  <si>
-    <t>Lori Run</t>
-  </si>
-  <si>
-    <t>Jensen Summit</t>
-  </si>
-  <si>
-    <t>Chambers Knoll</t>
-  </si>
-  <si>
-    <t>Dixon Hill</t>
-  </si>
-  <si>
-    <t>Debbie Island</t>
-  </si>
-  <si>
-    <t>Jacob Shores</t>
-  </si>
-  <si>
-    <t>Wilcox Springs</t>
-  </si>
-  <si>
-    <t>Blake Walk</t>
-  </si>
-  <si>
-    <t>Sean Cliff</t>
-  </si>
-  <si>
-    <t>Matthews Oval</t>
-  </si>
-  <si>
-    <t>Kenneth Center</t>
-  </si>
-  <si>
-    <t>King Hills</t>
-  </si>
-  <si>
-    <t>Santos Courts</t>
-  </si>
-  <si>
-    <t>Amber Wall</t>
-  </si>
-  <si>
-    <t>Angel Village</t>
-  </si>
-  <si>
-    <t>Davis Union</t>
-  </si>
-  <si>
-    <t>Jason Summit</t>
-  </si>
-  <si>
-    <t>Baker Fords</t>
-  </si>
-  <si>
-    <t>Figueroa Heights</t>
-  </si>
-  <si>
-    <t>Isabella Valleys</t>
-  </si>
-  <si>
-    <t>Bennett Plaza</t>
-  </si>
-  <si>
-    <t>Morgan Highway</t>
-  </si>
-  <si>
-    <t>Donna Creek</t>
-  </si>
-  <si>
-    <t>Madeline Vista</t>
-  </si>
-  <si>
-    <t>Lloyd Isle</t>
-  </si>
-  <si>
-    <t>Marcus Parkways</t>
-  </si>
-  <si>
-    <t>Angela Roads</t>
-  </si>
-  <si>
-    <t>Jimmy Ford</t>
-  </si>
-  <si>
-    <t>Fleming Square</t>
-  </si>
-  <si>
-    <t>Schaefer Villages</t>
-  </si>
-  <si>
-    <t>Robert Gateway</t>
-  </si>
-  <si>
-    <t>Weaver Viaduct</t>
   </si>
   <si>
     <t>ConditionID</t>
@@ -5520,7 +5520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -5594,7 +5594,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5612,7 +5612,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18318,7 +18318,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23194,7 +23194,7 @@
   </sheetPr>
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24861,7 +24861,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="C119" s="4">
         <v>594</v>
@@ -25341,7 +25341,7 @@
     <col min="5" max="5" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>961</v>
       </c>
@@ -25358,7 +25358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>45708.63581018519</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>45664.55181712963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>45691.62752314815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -25426,7 +25426,7 @@
         <v>45707.04556712963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>45703.635729166665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>45663.866689814815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>45689.07784722222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>45689.732615740744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>45670.60333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>45712.1234375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>45682.59054398148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -25562,7 +25562,7 @@
         <v>45708.97572916667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>45683.991481481484</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>45715.649189814816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>45709.28060185185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>45665.47127314815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -25647,7 +25647,7 @@
         <v>45714.615648148145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>45687.73185185185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>45678.99842592593</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>45682.81332175926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>45714.237349537034</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>45718.48866898148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>45683.55280092593</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>45713.881157407406</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>45660.51314814815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>45698.10909722222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>45659.46890046296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>45706.160208333335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>45686.57832175926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -25868,7 +25868,7 @@
         <v>45686.896944444445</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>45659.9065162037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>45684.89082175926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>45719.42030092593</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>45700.128229166665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>45706.41378472222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>45710.71523148148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>45706.52898148148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -27081,7 +27081,7 @@
     <col min="5" max="5" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>853</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>45673.96228009259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -27132,7 +27132,7 @@
         <v>45661.46258101852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>45666.397048611114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>45680.19200231481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>45693.49642361111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>45675.53077546296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -27217,7 +27217,7 @@
         <v>45678.952581018515</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -27234,7 +27234,7 @@
         <v>45673.95481481482</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>45685.954421296294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>45667.84289351852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -27285,7 +27285,7 @@
         <v>45677.048414351855</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>45709.53988425926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>45683.48100694444</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>45684.17398148148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>45707.12467592592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -27370,7 +27370,7 @@
         <v>45712.89376157407</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>45717.34107638889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -27404,7 +27404,7 @@
         <v>45666.041354166664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -27421,7 +27421,7 @@
         <v>45697.541446759256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>45711.282326388886</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>45683.44142361111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -28817,12 +28817,12 @@
     <col min="1" max="1" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -28830,8 +28830,8 @@
       <c r="C1" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>749</v>
+      <c r="D1" s="13" t="s">
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
@@ -28839,13 +28839,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45708.923368055555</v>
+        <v>752</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45678</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
@@ -28853,13 +28853,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45714.769594907404</v>
+        <v>754</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45695</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
@@ -28867,13 +28867,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45682.60362268519</v>
+        <v>752</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45709</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
@@ -28881,13 +28881,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45681.31648148148</v>
+        <v>752</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45691</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
@@ -28898,10 +28898,10 @@
         <v>757</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45691.48619212963</v>
+        <v>752</v>
+      </c>
+      <c r="D6" s="14">
+        <v>45658</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
@@ -28912,10 +28912,10 @@
         <v>758</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45683.61667824074</v>
+        <v>752</v>
+      </c>
+      <c r="D7" s="14">
+        <v>45716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
@@ -28926,10 +28926,10 @@
         <v>759</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45687.03171296296</v>
+        <v>752</v>
+      </c>
+      <c r="D8" s="14">
+        <v>45692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
@@ -28940,10 +28940,10 @@
         <v>760</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45667.74134259259</v>
+        <v>752</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
@@ -28954,10 +28954,10 @@
         <v>761</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45697.17585648148</v>
+        <v>752</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45665</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
@@ -28968,10 +28968,10 @@
         <v>762</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45696.8396875</v>
+        <v>754</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45705</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
@@ -28982,10 +28982,10 @@
         <v>763</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45673.934849537036</v>
+        <v>754</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
@@ -28996,10 +28996,10 @@
         <v>764</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45707.38003472222</v>
+        <v>754</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
@@ -29010,10 +29010,10 @@
         <v>765</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D14" s="6">
-        <v>45677.12012731482</v>
+        <v>752</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45670</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
@@ -29024,10 +29024,10 @@
         <v>766</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D15" s="6">
-        <v>45683.50515046297</v>
+        <v>752</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45701</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
@@ -29038,10 +29038,10 @@
         <v>767</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D16" s="6">
-        <v>45702.004375</v>
+        <v>754</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
@@ -29052,10 +29052,10 @@
         <v>768</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45682.46508101852</v>
+        <v>752</v>
+      </c>
+      <c r="D17" s="14">
+        <v>45664</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
@@ -29066,10 +29066,10 @@
         <v>769</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45692.076516203706</v>
+        <v>754</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
@@ -29080,10 +29080,10 @@
         <v>770</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45707.16741898148</v>
+        <v>754</v>
+      </c>
+      <c r="D19" s="14">
+        <v>45702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
@@ -29094,10 +29094,10 @@
         <v>771</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45667.902708333335</v>
+        <v>754</v>
+      </c>
+      <c r="D20" s="14">
+        <v>45692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
@@ -29108,10 +29108,10 @@
         <v>772</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45688.70512731482</v>
+        <v>754</v>
+      </c>
+      <c r="D21" s="14">
+        <v>45692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
@@ -29122,10 +29122,10 @@
         <v>773</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45671.62883101852</v>
+        <v>754</v>
+      </c>
+      <c r="D22" s="14">
+        <v>45666</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
@@ -29136,10 +29136,10 @@
         <v>774</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" s="6">
-        <v>45683.75883101852</v>
+        <v>754</v>
+      </c>
+      <c r="D23" s="14">
+        <v>45677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
@@ -29150,10 +29150,10 @@
         <v>775</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45704.64494212963</v>
+        <v>752</v>
+      </c>
+      <c r="D24" s="14">
+        <v>45700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
@@ -29164,10 +29164,10 @@
         <v>776</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45674.725625</v>
+        <v>754</v>
+      </c>
+      <c r="D25" s="14">
+        <v>45660</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
@@ -29178,10 +29178,10 @@
         <v>777</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D26" s="6">
-        <v>45691.74141203704</v>
+        <v>752</v>
+      </c>
+      <c r="D26" s="14">
+        <v>45702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
@@ -29192,10 +29192,10 @@
         <v>778</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D27" s="6">
-        <v>45691.460381944446</v>
+        <v>754</v>
+      </c>
+      <c r="D27" s="14">
+        <v>45683</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
@@ -29206,10 +29206,10 @@
         <v>779</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D28" s="6">
-        <v>45672.94710648148</v>
+        <v>752</v>
+      </c>
+      <c r="D28" s="14">
+        <v>45690</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
@@ -29220,10 +29220,10 @@
         <v>780</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45678.80075231481</v>
+        <v>752</v>
+      </c>
+      <c r="D29" s="14">
+        <v>45704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
@@ -29234,10 +29234,10 @@
         <v>781</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D30" s="6">
-        <v>45698.24883101852</v>
+        <v>752</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
@@ -29248,10 +29248,10 @@
         <v>782</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D31" s="6">
-        <v>45711.769780092596</v>
+        <v>752</v>
+      </c>
+      <c r="D31" s="14">
+        <v>45659</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
@@ -29262,10 +29262,10 @@
         <v>783</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D32" s="6">
-        <v>45702.38513888889</v>
+        <v>754</v>
+      </c>
+      <c r="D32" s="14">
+        <v>45712</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
@@ -29276,10 +29276,10 @@
         <v>784</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45711.648206018515</v>
+        <v>752</v>
+      </c>
+      <c r="D33" s="14">
+        <v>45675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
@@ -29290,10 +29290,10 @@
         <v>785</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45677.747245370374</v>
+        <v>752</v>
+      </c>
+      <c r="D34" s="14">
+        <v>45662</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
@@ -29304,10 +29304,10 @@
         <v>786</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D35" s="6">
-        <v>45713.45295138889</v>
+        <v>754</v>
+      </c>
+      <c r="D35" s="14">
+        <v>45694</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
@@ -29318,10 +29318,10 @@
         <v>787</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45689.89157407408</v>
+        <v>754</v>
+      </c>
+      <c r="D36" s="14">
+        <v>45690</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
@@ -29332,10 +29332,10 @@
         <v>788</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45713.579884259256</v>
+        <v>754</v>
+      </c>
+      <c r="D37" s="14">
+        <v>45671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
@@ -29346,10 +29346,10 @@
         <v>789</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D38" s="6">
-        <v>45709.16987268518</v>
+        <v>752</v>
+      </c>
+      <c r="D38" s="14">
+        <v>45680</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
@@ -29360,10 +29360,10 @@
         <v>790</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D39" s="6">
-        <v>45713.80875</v>
+        <v>752</v>
+      </c>
+      <c r="D39" s="14">
+        <v>45660</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
@@ -29374,10 +29374,10 @@
         <v>791</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45673.81321759259</v>
+        <v>752</v>
+      </c>
+      <c r="D40" s="14">
+        <v>45671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
@@ -29388,10 +29388,10 @@
         <v>792</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D41" s="6">
-        <v>45682.44561342592</v>
+        <v>752</v>
+      </c>
+      <c r="D41" s="14">
+        <v>45717</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
@@ -29402,10 +29402,10 @@
         <v>793</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45683.62888888889</v>
+        <v>752</v>
+      </c>
+      <c r="D42" s="14">
+        <v>45704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
@@ -29416,10 +29416,10 @@
         <v>794</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45679.184907407405</v>
+        <v>752</v>
+      </c>
+      <c r="D43" s="14">
+        <v>45681</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
@@ -29430,10 +29430,10 @@
         <v>795</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D44" s="6">
-        <v>45667.98409722222</v>
+        <v>752</v>
+      </c>
+      <c r="D44" s="14">
+        <v>45702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
@@ -29444,10 +29444,10 @@
         <v>796</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D45" s="6">
-        <v>45677.44263888889</v>
+        <v>752</v>
+      </c>
+      <c r="D45" s="14">
+        <v>45702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
@@ -29458,10 +29458,10 @@
         <v>797</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D46" s="6">
-        <v>45668.740011574075</v>
+        <v>754</v>
+      </c>
+      <c r="D46" s="14">
+        <v>45706</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
@@ -29472,10 +29472,10 @@
         <v>798</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D47" s="6">
-        <v>45696.109305555554</v>
+        <v>752</v>
+      </c>
+      <c r="D47" s="14">
+        <v>45682</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
@@ -29486,10 +29486,10 @@
         <v>799</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D48" s="6">
-        <v>45665.2728587963</v>
+        <v>752</v>
+      </c>
+      <c r="D48" s="14">
+        <v>45660</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
@@ -29500,10 +29500,10 @@
         <v>800</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D49" s="6">
-        <v>45706.17681712963</v>
+        <v>754</v>
+      </c>
+      <c r="D49" s="14">
+        <v>45712</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
@@ -29514,10 +29514,10 @@
         <v>801</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D50" s="6">
-        <v>45666.70893518518</v>
+        <v>754</v>
+      </c>
+      <c r="D50" s="14">
+        <v>45699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
@@ -29528,10 +29528,10 @@
         <v>802</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D51" s="6">
-        <v>45670.419016203705</v>
+        <v>754</v>
+      </c>
+      <c r="D51" s="14">
+        <v>45692</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
@@ -29542,10 +29542,10 @@
         <v>803</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D52" s="6">
-        <v>45699.652708333335</v>
+        <v>752</v>
+      </c>
+      <c r="D52" s="14">
+        <v>45714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
@@ -29556,10 +29556,10 @@
         <v>804</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D53" s="6">
-        <v>45709.87461805555</v>
+        <v>752</v>
+      </c>
+      <c r="D53" s="14">
+        <v>45668</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
@@ -29570,10 +29570,10 @@
         <v>805</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D54" s="6">
-        <v>45664.61125</v>
+        <v>752</v>
+      </c>
+      <c r="D54" s="14">
+        <v>45691</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
@@ -29584,10 +29584,10 @@
         <v>806</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D55" s="6">
-        <v>45718.99637731481</v>
+        <v>752</v>
+      </c>
+      <c r="D55" s="14">
+        <v>45672</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
@@ -29598,10 +29598,10 @@
         <v>807</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D56" s="6">
-        <v>45713.75665509259</v>
+        <v>752</v>
+      </c>
+      <c r="D56" s="14">
+        <v>45706</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
@@ -29612,10 +29612,10 @@
         <v>808</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D57" s="6">
-        <v>45668.18701388889</v>
+        <v>752</v>
+      </c>
+      <c r="D57" s="14">
+        <v>45708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
@@ -29626,10 +29626,10 @@
         <v>809</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D58" s="6">
-        <v>45718.75724537037</v>
+        <v>752</v>
+      </c>
+      <c r="D58" s="14">
+        <v>45715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
@@ -29640,10 +29640,10 @@
         <v>810</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D59" s="6">
-        <v>45668.527604166666</v>
+        <v>752</v>
+      </c>
+      <c r="D59" s="14">
+        <v>45662</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
@@ -29654,10 +29654,10 @@
         <v>811</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D60" s="6">
-        <v>45707.43591435185</v>
+        <v>754</v>
+      </c>
+      <c r="D60" s="14">
+        <v>45707</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
@@ -29668,10 +29668,10 @@
         <v>812</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D61" s="6">
-        <v>45693.80811342593</v>
+        <v>754</v>
+      </c>
+      <c r="D61" s="14">
+        <v>45714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
@@ -29682,10 +29682,10 @@
         <v>813</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D62" s="6">
-        <v>45674.00299768519</v>
+        <v>752</v>
+      </c>
+      <c r="D62" s="14">
+        <v>45663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
@@ -29696,10 +29696,10 @@
         <v>814</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D63" s="6">
-        <v>45690.43736111111</v>
+        <v>754</v>
+      </c>
+      <c r="D63" s="14">
+        <v>45669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
@@ -29710,10 +29710,10 @@
         <v>815</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D64" s="6">
-        <v>45664.63847222222</v>
+        <v>754</v>
+      </c>
+      <c r="D64" s="14">
+        <v>45699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
@@ -29724,10 +29724,10 @@
         <v>816</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D65" s="6">
-        <v>45666.82696759259</v>
+        <v>754</v>
+      </c>
+      <c r="D65" s="14">
+        <v>45701</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
@@ -29738,10 +29738,10 @@
         <v>817</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D66" s="6">
-        <v>45661.57001157408</v>
+        <v>754</v>
+      </c>
+      <c r="D66" s="14">
+        <v>45707</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
@@ -29752,10 +29752,10 @@
         <v>818</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D67" s="6">
-        <v>45708.44144675926</v>
+        <v>752</v>
+      </c>
+      <c r="D67" s="14">
+        <v>45691</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
@@ -29766,10 +29766,10 @@
         <v>819</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D68" s="6">
-        <v>45670.828310185185</v>
+        <v>752</v>
+      </c>
+      <c r="D68" s="14">
+        <v>45715</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
@@ -29780,10 +29780,10 @@
         <v>820</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D69" s="6">
-        <v>45685.516493055555</v>
+        <v>754</v>
+      </c>
+      <c r="D69" s="14">
+        <v>45664</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
@@ -29794,10 +29794,10 @@
         <v>821</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D70" s="6">
-        <v>45692.962789351855</v>
+        <v>754</v>
+      </c>
+      <c r="D70" s="14">
+        <v>45701</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
@@ -29808,10 +29808,10 @@
         <v>822</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D71" s="6">
-        <v>45670.75513888889</v>
+        <v>752</v>
+      </c>
+      <c r="D71" s="14">
+        <v>45684</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
@@ -29822,10 +29822,10 @@
         <v>823</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D72" s="6">
-        <v>45672.47770833333</v>
+        <v>754</v>
+      </c>
+      <c r="D72" s="14">
+        <v>45677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
@@ -29836,10 +29836,10 @@
         <v>824</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D73" s="6">
-        <v>45703.535625</v>
+        <v>752</v>
+      </c>
+      <c r="D73" s="14">
+        <v>45687</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
@@ -29850,10 +29850,10 @@
         <v>825</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D74" s="6">
-        <v>45691.355775462966</v>
+        <v>752</v>
+      </c>
+      <c r="D74" s="14">
+        <v>45675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
@@ -29864,10 +29864,10 @@
         <v>826</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D75" s="6">
-        <v>45708.063888888886</v>
+        <v>752</v>
+      </c>
+      <c r="D75" s="14">
+        <v>45673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
@@ -29878,10 +29878,10 @@
         <v>827</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D76" s="6">
-        <v>45713.71821759259</v>
+        <v>752</v>
+      </c>
+      <c r="D76" s="14">
+        <v>45667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
@@ -29892,10 +29892,10 @@
         <v>828</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D77" s="6">
-        <v>45680.971030092594</v>
+        <v>752</v>
+      </c>
+      <c r="D77" s="14">
+        <v>45677</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
@@ -29906,10 +29906,10 @@
         <v>829</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D78" s="6">
-        <v>45716.87079861111</v>
+        <v>752</v>
+      </c>
+      <c r="D78" s="14">
+        <v>45668</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
@@ -29920,10 +29920,10 @@
         <v>830</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D79" s="6">
-        <v>45674.65862268519</v>
+        <v>754</v>
+      </c>
+      <c r="D79" s="14">
+        <v>45708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
@@ -29934,10 +29934,10 @@
         <v>831</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D80" s="6">
-        <v>45658.88185185185</v>
+        <v>754</v>
+      </c>
+      <c r="D80" s="14">
+        <v>45716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5">
@@ -29948,10 +29948,10 @@
         <v>832</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D81" s="6">
-        <v>45666.12962962963</v>
+        <v>752</v>
+      </c>
+      <c r="D81" s="14">
+        <v>45680</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5">
@@ -29962,10 +29962,10 @@
         <v>833</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D82" s="6">
-        <v>45706.54856481482</v>
+        <v>754</v>
+      </c>
+      <c r="D82" s="14">
+        <v>45675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5">
@@ -29976,10 +29976,10 @@
         <v>834</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D83" s="6">
-        <v>45678.4618287037</v>
+        <v>752</v>
+      </c>
+      <c r="D83" s="14">
+        <v>45674</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5">
@@ -29990,10 +29990,10 @@
         <v>835</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D84" s="6">
-        <v>45660.012094907404</v>
+        <v>754</v>
+      </c>
+      <c r="D84" s="14">
+        <v>45685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5">
@@ -30004,10 +30004,10 @@
         <v>836</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D85" s="6">
-        <v>45706.35476851852</v>
+        <v>754</v>
+      </c>
+      <c r="D85" s="14">
+        <v>45712</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5">
@@ -30018,10 +30018,10 @@
         <v>837</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D86" s="6">
-        <v>45672.88266203704</v>
+        <v>752</v>
+      </c>
+      <c r="D86" s="14">
+        <v>45658</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5">
@@ -30032,10 +30032,10 @@
         <v>838</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D87" s="6">
-        <v>45659.26629629629</v>
+        <v>752</v>
+      </c>
+      <c r="D87" s="14">
+        <v>45668</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5">
@@ -30046,10 +30046,10 @@
         <v>839</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D88" s="6">
-        <v>45678.12291666667</v>
+        <v>752</v>
+      </c>
+      <c r="D88" s="14">
+        <v>45675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5">
@@ -30060,10 +30060,10 @@
         <v>840</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D89" s="6">
-        <v>45668.74134259259</v>
+        <v>752</v>
+      </c>
+      <c r="D89" s="14">
+        <v>45687</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5">
@@ -30074,10 +30074,10 @@
         <v>841</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D90" s="6">
-        <v>45692.01363425926</v>
+        <v>754</v>
+      </c>
+      <c r="D90" s="14">
+        <v>45704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5">
@@ -30088,10 +30088,10 @@
         <v>842</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D91" s="6">
-        <v>45669.68738425926</v>
+        <v>754</v>
+      </c>
+      <c r="D91" s="14">
+        <v>45671</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5">
@@ -30102,10 +30102,10 @@
         <v>843</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D92" s="6">
-        <v>45702.994155092594</v>
+        <v>752</v>
+      </c>
+      <c r="D92" s="14">
+        <v>45695</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5">
@@ -30116,10 +30116,10 @@
         <v>844</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D93" s="6">
-        <v>45689.65520833333</v>
+        <v>754</v>
+      </c>
+      <c r="D93" s="14">
+        <v>45690</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5">
@@ -30130,10 +30130,10 @@
         <v>845</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D94" s="6">
-        <v>45698.65090277778</v>
+        <v>754</v>
+      </c>
+      <c r="D94" s="14">
+        <v>45664</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5">
@@ -30144,10 +30144,10 @@
         <v>846</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D95" s="6">
-        <v>45692.2590162037</v>
+        <v>752</v>
+      </c>
+      <c r="D95" s="14">
+        <v>45685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5">
@@ -30158,10 +30158,10 @@
         <v>847</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D96" s="6">
-        <v>45681.29299768519</v>
+        <v>752</v>
+      </c>
+      <c r="D96" s="14">
+        <v>45662</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5">
@@ -30172,10 +30172,10 @@
         <v>848</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D97" s="6">
-        <v>45706.955972222226</v>
+        <v>752</v>
+      </c>
+      <c r="D97" s="14">
+        <v>45697</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5">
@@ -30186,10 +30186,10 @@
         <v>849</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D98" s="6">
-        <v>45689.57429398148</v>
+        <v>754</v>
+      </c>
+      <c r="D98" s="14">
+        <v>45696</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5">
@@ -30200,10 +30200,10 @@
         <v>850</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="D99" s="6">
-        <v>45668.196064814816</v>
+        <v>752</v>
+      </c>
+      <c r="D99" s="14">
+        <v>45698</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5">
@@ -30214,10 +30214,10 @@
         <v>851</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D100" s="6">
-        <v>45663.803761574076</v>
+        <v>752</v>
+      </c>
+      <c r="D100" s="14">
+        <v>45690</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5">
@@ -30228,10 +30228,10 @@
         <v>852</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D101" s="6">
-        <v>45685.119780092595</v>
+        <v>752</v>
+      </c>
+      <c r="D101" s="14">
+        <v>45668</v>
       </c>
     </row>
   </sheetData>
@@ -30253,7 +30253,7 @@
     <col min="1" max="1" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -30266,7 +30266,7 @@
       <c r="C1" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>645</v>
       </c>
     </row>
@@ -30280,8 +30280,8 @@
       <c r="C2" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="14">
-        <v>45678</v>
+      <c r="D2" s="6">
+        <v>45708.923368055555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
@@ -30294,8 +30294,8 @@
       <c r="C3" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D3" s="14">
-        <v>45695</v>
+      <c r="D3" s="6">
+        <v>45714.769594907404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
@@ -30308,8 +30308,8 @@
       <c r="C4" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D4" s="14">
-        <v>45709</v>
+      <c r="D4" s="6">
+        <v>45682.60362268519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
@@ -30320,10 +30320,10 @@
         <v>651</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D5" s="14">
-        <v>45691</v>
+        <v>652</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45681.31648148148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
@@ -30331,13 +30331,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D6" s="14">
-        <v>45658</v>
+      <c r="D6" s="6">
+        <v>45691.48619212963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
@@ -30345,13 +30345,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="14">
-        <v>45716</v>
+        <v>649</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45683.61667824074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
@@ -30359,13 +30359,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D8" s="14">
-        <v>45692</v>
+      <c r="D8" s="6">
+        <v>45687.03171296296</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
@@ -30373,13 +30373,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D9" s="14">
-        <v>45715</v>
+      <c r="D9" s="6">
+        <v>45667.74134259259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
@@ -30387,13 +30387,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D10" s="14">
-        <v>45665</v>
+        <v>649</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45697.17585648148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
@@ -30401,13 +30401,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45705</v>
+        <v>647</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45696.8396875</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
@@ -30415,13 +30415,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D12" s="14">
-        <v>45692</v>
+        <v>647</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45673.934849537036</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
@@ -30429,13 +30429,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D13" s="14">
-        <v>45704</v>
+      <c r="D13" s="6">
+        <v>45707.38003472222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
@@ -30443,13 +30443,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D14" s="14">
-        <v>45670</v>
+      <c r="D14" s="6">
+        <v>45677.12012731482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
@@ -30457,13 +30457,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D15" s="14">
-        <v>45701</v>
+      <c r="D15" s="6">
+        <v>45683.50515046297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
@@ -30471,13 +30471,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D16" s="14">
-        <v>45702</v>
+      <c r="D16" s="6">
+        <v>45702.004375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
@@ -30485,13 +30485,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D17" s="14">
-        <v>45664</v>
+        <v>652</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45682.46508101852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
@@ -30499,13 +30499,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D18" s="14">
-        <v>45708</v>
+        <v>652</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45692.076516203706</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
@@ -30513,13 +30513,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="14">
-        <v>45702</v>
+      <c r="D19" s="6">
+        <v>45707.16741898148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
@@ -30527,13 +30527,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D20" s="14">
-        <v>45692</v>
+      <c r="D20" s="6">
+        <v>45667.902708333335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
@@ -30541,13 +30541,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D21" s="14">
-        <v>45692</v>
+        <v>647</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45688.70512731482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
@@ -30555,13 +30555,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D22" s="14">
-        <v>45666</v>
+      <c r="D22" s="6">
+        <v>45671.62883101852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
@@ -30569,13 +30569,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D23" s="14">
-        <v>45677</v>
+      <c r="D23" s="6">
+        <v>45683.75883101852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
@@ -30583,13 +30583,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D24" s="14">
-        <v>45700</v>
+        <v>652</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45704.64494212963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
@@ -30597,13 +30597,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D25" s="14">
-        <v>45660</v>
+      <c r="D25" s="6">
+        <v>45674.725625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
@@ -30611,13 +30611,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D26" s="14">
-        <v>45702</v>
+        <v>652</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45691.74141203704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
@@ -30625,13 +30625,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D27" s="14">
-        <v>45683</v>
+      <c r="D27" s="6">
+        <v>45691.460381944446</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
@@ -30639,13 +30639,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D28" s="14">
-        <v>45690</v>
+        <v>652</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45672.94710648148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
@@ -30653,13 +30653,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D29" s="14">
-        <v>45704</v>
+      <c r="D29" s="6">
+        <v>45678.80075231481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
@@ -30667,13 +30667,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D30" s="14">
-        <v>45708</v>
+        <v>649</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45698.24883101852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
@@ -30681,13 +30681,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D31" s="14">
-        <v>45659</v>
+        <v>649</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45711.769780092596</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
@@ -30695,13 +30695,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D32" s="14">
-        <v>45712</v>
+        <v>652</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45702.38513888889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
@@ -30709,13 +30709,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D33" s="14">
-        <v>45675</v>
+        <v>649</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45711.648206018515</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
@@ -30723,13 +30723,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D34" s="14">
-        <v>45662</v>
+        <v>652</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45677.747245370374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
@@ -30737,13 +30737,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D35" s="14">
-        <v>45694</v>
+        <v>652</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45713.45295138889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
@@ -30751,13 +30751,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D36" s="14">
-        <v>45690</v>
+        <v>647</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45689.89157407408</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
@@ -30765,13 +30765,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D37" s="14">
-        <v>45671</v>
+      <c r="D37" s="6">
+        <v>45713.579884259256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
@@ -30779,13 +30779,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D38" s="14">
-        <v>45680</v>
+        <v>649</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45709.16987268518</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
@@ -30793,13 +30793,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D39" s="14">
-        <v>45660</v>
+      <c r="D39" s="6">
+        <v>45713.80875</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
@@ -30807,13 +30807,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D40" s="14">
-        <v>45671</v>
+        <v>649</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45673.81321759259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
@@ -30821,13 +30821,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D41" s="14">
-        <v>45717</v>
+        <v>652</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45682.44561342592</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
@@ -30835,13 +30835,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D42" s="14">
-        <v>45704</v>
+      <c r="D42" s="6">
+        <v>45683.62888888889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
@@ -30849,13 +30849,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D43" s="14">
-        <v>45681</v>
+      <c r="D43" s="6">
+        <v>45679.184907407405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
@@ -30863,13 +30863,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D44" s="14">
-        <v>45702</v>
+        <v>649</v>
+      </c>
+      <c r="D44" s="6">
+        <v>45667.98409722222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
@@ -30877,13 +30877,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D45" s="14">
-        <v>45702</v>
+        <v>652</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45677.44263888889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
@@ -30891,13 +30891,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D46" s="14">
-        <v>45706</v>
+        <v>652</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45668.740011574075</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
@@ -30905,13 +30905,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D47" s="14">
-        <v>45682</v>
+        <v>652</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45696.109305555554</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
@@ -30919,13 +30919,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D48" s="14">
-        <v>45660</v>
+        <v>652</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45665.2728587963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
@@ -30933,13 +30933,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D49" s="14">
-        <v>45712</v>
+      <c r="D49" s="6">
+        <v>45706.17681712963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
@@ -30947,13 +30947,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D50" s="14">
-        <v>45699</v>
+        <v>647</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45666.70893518518</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
@@ -30961,13 +30961,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D51" s="14">
-        <v>45692</v>
+      <c r="D51" s="6">
+        <v>45670.419016203705</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
@@ -30975,13 +30975,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D52" s="14">
-        <v>45714</v>
+        <v>649</v>
+      </c>
+      <c r="D52" s="6">
+        <v>45699.652708333335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
@@ -30989,13 +30989,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D53" s="14">
-        <v>45668</v>
+        <v>649</v>
+      </c>
+      <c r="D53" s="6">
+        <v>45709.87461805555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
@@ -31003,13 +31003,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D54" s="14">
-        <v>45691</v>
+        <v>649</v>
+      </c>
+      <c r="D54" s="6">
+        <v>45664.61125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
@@ -31017,13 +31017,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D55" s="14">
-        <v>45672</v>
+      <c r="D55" s="6">
+        <v>45718.99637731481</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
@@ -31031,13 +31031,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D56" s="14">
-        <v>45706</v>
+        <v>649</v>
+      </c>
+      <c r="D56" s="6">
+        <v>45713.75665509259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
@@ -31045,13 +31045,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D57" s="14">
-        <v>45708</v>
+        <v>652</v>
+      </c>
+      <c r="D57" s="6">
+        <v>45668.18701388889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
@@ -31059,13 +31059,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D58" s="14">
-        <v>45715</v>
+        <v>649</v>
+      </c>
+      <c r="D58" s="6">
+        <v>45718.75724537037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
@@ -31073,13 +31073,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D59" s="14">
-        <v>45662</v>
+        <v>652</v>
+      </c>
+      <c r="D59" s="6">
+        <v>45668.527604166666</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
@@ -31087,13 +31087,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D60" s="14">
-        <v>45707</v>
+        <v>647</v>
+      </c>
+      <c r="D60" s="6">
+        <v>45707.43591435185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
@@ -31101,13 +31101,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D61" s="14">
-        <v>45714</v>
+      <c r="D61" s="6">
+        <v>45693.80811342593</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
@@ -31115,13 +31115,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D62" s="14">
-        <v>45663</v>
+        <v>649</v>
+      </c>
+      <c r="D62" s="6">
+        <v>45674.00299768519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
@@ -31129,13 +31129,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D63" s="14">
-        <v>45669</v>
+        <v>647</v>
+      </c>
+      <c r="D63" s="6">
+        <v>45690.43736111111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
@@ -31143,13 +31143,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D64" s="14">
-        <v>45699</v>
+        <v>652</v>
+      </c>
+      <c r="D64" s="6">
+        <v>45664.63847222222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
@@ -31157,13 +31157,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D65" s="14">
-        <v>45701</v>
+      <c r="D65" s="6">
+        <v>45666.82696759259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
@@ -31171,13 +31171,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D66" s="14">
-        <v>45707</v>
+        <v>647</v>
+      </c>
+      <c r="D66" s="6">
+        <v>45661.57001157408</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
@@ -31185,13 +31185,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D67" s="14">
-        <v>45691</v>
+        <v>652</v>
+      </c>
+      <c r="D67" s="6">
+        <v>45708.44144675926</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
@@ -31199,13 +31199,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D68" s="14">
-        <v>45715</v>
+        <v>652</v>
+      </c>
+      <c r="D68" s="6">
+        <v>45670.828310185185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
@@ -31213,13 +31213,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D69" s="14">
-        <v>45664</v>
+      <c r="D69" s="6">
+        <v>45685.516493055555</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
@@ -31227,13 +31227,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D70" s="14">
-        <v>45701</v>
+        <v>647</v>
+      </c>
+      <c r="D70" s="6">
+        <v>45692.962789351855</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
@@ -31241,13 +31241,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D71" s="14">
-        <v>45684</v>
+      <c r="D71" s="6">
+        <v>45670.75513888889</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
@@ -31255,13 +31255,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D72" s="14">
-        <v>45677</v>
+      <c r="D72" s="6">
+        <v>45672.47770833333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
@@ -31269,13 +31269,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D73" s="14">
-        <v>45687</v>
+        <v>649</v>
+      </c>
+      <c r="D73" s="6">
+        <v>45703.535625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
@@ -31283,13 +31283,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D74" s="14">
-        <v>45675</v>
+        <v>649</v>
+      </c>
+      <c r="D74" s="6">
+        <v>45691.355775462966</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
@@ -31297,13 +31297,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D75" s="14">
-        <v>45673</v>
+      <c r="D75" s="6">
+        <v>45708.063888888886</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
@@ -31311,13 +31311,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D76" s="14">
-        <v>45667</v>
+        <v>649</v>
+      </c>
+      <c r="D76" s="6">
+        <v>45713.71821759259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
@@ -31325,13 +31325,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D77" s="14">
-        <v>45677</v>
+        <v>649</v>
+      </c>
+      <c r="D77" s="6">
+        <v>45680.971030092594</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
@@ -31339,13 +31339,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D78" s="14">
-        <v>45668</v>
+      <c r="D78" s="6">
+        <v>45716.87079861111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
@@ -31353,13 +31353,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D79" s="14">
-        <v>45708</v>
+        <v>647</v>
+      </c>
+      <c r="D79" s="6">
+        <v>45674.65862268519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
@@ -31367,13 +31367,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D80" s="14">
-        <v>45716</v>
+      <c r="D80" s="6">
+        <v>45658.88185185185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5">
@@ -31381,13 +31381,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D81" s="14">
-        <v>45680</v>
+        <v>652</v>
+      </c>
+      <c r="D81" s="6">
+        <v>45666.12962962963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5">
@@ -31395,13 +31395,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D82" s="14">
-        <v>45675</v>
+        <v>647</v>
+      </c>
+      <c r="D82" s="6">
+        <v>45706.54856481482</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5">
@@ -31409,13 +31409,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D83" s="14">
-        <v>45674</v>
+        <v>652</v>
+      </c>
+      <c r="D83" s="6">
+        <v>45678.4618287037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5">
@@ -31423,13 +31423,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D84" s="14">
-        <v>45685</v>
+        <v>652</v>
+      </c>
+      <c r="D84" s="6">
+        <v>45660.012094907404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5">
@@ -31437,13 +31437,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D85" s="14">
-        <v>45712</v>
+        <v>647</v>
+      </c>
+      <c r="D85" s="6">
+        <v>45706.35476851852</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5">
@@ -31451,13 +31451,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D86" s="14">
-        <v>45658</v>
+        <v>649</v>
+      </c>
+      <c r="D86" s="6">
+        <v>45672.88266203704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5">
@@ -31465,13 +31465,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D87" s="14">
-        <v>45668</v>
+      <c r="D87" s="6">
+        <v>45659.26629629629</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5">
@@ -31479,13 +31479,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D88" s="14">
-        <v>45675</v>
+        <v>649</v>
+      </c>
+      <c r="D88" s="6">
+        <v>45678.12291666667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5">
@@ -31493,13 +31493,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D89" s="14">
-        <v>45687</v>
+        <v>652</v>
+      </c>
+      <c r="D89" s="6">
+        <v>45668.74134259259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5">
@@ -31507,13 +31507,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D90" s="14">
-        <v>45704</v>
+        <v>647</v>
+      </c>
+      <c r="D90" s="6">
+        <v>45692.01363425926</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5">
@@ -31521,13 +31521,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D91" s="14">
-        <v>45671</v>
+      <c r="D91" s="6">
+        <v>45669.68738425926</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5">
@@ -31535,13 +31535,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D92" s="14">
-        <v>45695</v>
+        <v>652</v>
+      </c>
+      <c r="D92" s="6">
+        <v>45702.994155092594</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5">
@@ -31549,13 +31549,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D93" s="14">
-        <v>45690</v>
+        <v>647</v>
+      </c>
+      <c r="D93" s="6">
+        <v>45689.65520833333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5">
@@ -31563,13 +31563,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D94" s="14">
-        <v>45664</v>
+        <v>652</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45698.65090277778</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5">
@@ -31577,13 +31577,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D95" s="14">
-        <v>45685</v>
+      <c r="D95" s="6">
+        <v>45692.2590162037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5">
@@ -31591,13 +31591,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D96" s="14">
-        <v>45662</v>
+        <v>649</v>
+      </c>
+      <c r="D96" s="6">
+        <v>45681.29299768519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5">
@@ -31605,13 +31605,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D97" s="14">
-        <v>45697</v>
+        <v>649</v>
+      </c>
+      <c r="D97" s="6">
+        <v>45706.955972222226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5">
@@ -31619,13 +31619,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D98" s="14">
-        <v>45696</v>
+        <v>652</v>
+      </c>
+      <c r="D98" s="6">
+        <v>45689.57429398148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5">
@@ -31633,13 +31633,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D99" s="14">
-        <v>45698</v>
+        <v>649</v>
+      </c>
+      <c r="D99" s="6">
+        <v>45668.196064814816</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5">
@@ -31647,13 +31647,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D100" s="14">
-        <v>45690</v>
+      <c r="D100" s="6">
+        <v>45663.803761574076</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5">
@@ -31661,13 +31661,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="D101" s="14">
-        <v>45668</v>
+      <c r="D101" s="6">
+        <v>45685.119780092595</v>
       </c>
     </row>
   </sheetData>

--- a/data/traffic_flow_data.xlsx
+++ b/data/traffic_flow_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Vehicles"/>
@@ -13670,7 +13670,7 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18318,7 +18318,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23204,7 +23204,7 @@
     <col min="4" max="4" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>45703.922581018516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -23246,7 +23246,7 @@
         <v>45693.7584375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>45705.33107638889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>45716.22565972222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>45714.16056712963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>45686.545960648145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -23316,7 +23316,7 @@
         <v>45674.69085648148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>45685.16394675926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>45672.19633101852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -23358,7 +23358,7 @@
         <v>45663.11971064815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>45691.029652777775</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>45660.00033564815</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>45671.35952546296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>45662.60167824074</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>45691.16488425926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -23442,7 +23442,7 @@
         <v>45680.64152777778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>45713.22523148148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -23470,7 +23470,7 @@
         <v>45659.36048611111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>45672.36759259259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>45710.80153935185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>45674.36817129629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>45711.89525462963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>45708.96134259259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
